--- a/chap07-express/uploads/엑셀연습1.xlsx
+++ b/chap07-express/uploads/엑셀연습1.xlsx
@@ -54,19 +54,19 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">test123</t>
+    <t xml:space="preserve">test987</t>
   </si>
   <si>
     <t xml:space="preserve">박기홍</t>
   </si>
   <si>
-    <t xml:space="preserve">user123</t>
+    <t xml:space="preserve">user987</t>
   </si>
   <si>
     <t xml:space="preserve">홍길동</t>
   </si>
   <si>
-    <t xml:space="preserve">admin</t>
+    <t xml:space="preserve">admin123</t>
   </si>
   <si>
     <t xml:space="preserve">관리김</t>
@@ -282,7 +282,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
